--- a/train.xlsx
+++ b/train.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ella\Desktop\Reserts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{101A0A4D-7BED-4402-801C-A6EEA1E88A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE9FF98-A3E7-4213-941D-D3B6B103D837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6BDE693E-324D-4AAA-B13D-FFC78B2E5C04}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>Phrase</t>
   </si>
@@ -62,30 +62,12 @@
     <t>Our house is large, and theirs is small.</t>
   </si>
   <si>
-    <t>Dakua uy!</t>
-  </si>
-  <si>
-    <t>My! How big it is!</t>
-  </si>
-  <si>
     <t>Patyun tikaw, irua ka!</t>
   </si>
   <si>
     <t>I’ll kill you, you dog you!</t>
   </si>
   <si>
-    <t>Ngilngigang awtuha a!</t>
-  </si>
-  <si>
-    <t>That’s some car!</t>
-  </si>
-  <si>
-    <t>A, muanhi ka ugma?</t>
-  </si>
-  <si>
-    <t>Um, are you going to come here tomorrow?</t>
-  </si>
-  <si>
     <t>A, pariha ra naku,</t>
   </si>
   <si>
@@ -104,12 +86,6 @@
     <t>Oh, you can’t do that.</t>
   </si>
   <si>
-    <t>A, duha diay tu,</t>
-  </si>
-  <si>
-    <t>Oh, yes. There were two of them, weren’t there.</t>
-  </si>
-  <si>
     <t>A, Litu diay imung ngalan,</t>
   </si>
   <si>
@@ -122,36 +98,6 @@
     <t>Oh, how nice!</t>
   </si>
   <si>
-    <t>A, nahuwasan ku,</t>
-  </si>
-  <si>
-    <t>Ah, what a relief!</t>
-  </si>
-  <si>
-    <t>A, mu ra diay na? Kasayun a!</t>
-  </si>
-  <si>
-    <t>Oh, is that all there is to it? How easy it is!</t>
-  </si>
-  <si>
-    <t>A, asa man ku mutuu nimu,</t>
-  </si>
-  <si>
-    <t>Hm, you think I could believe you?</t>
-  </si>
-  <si>
-    <t>A, hinaya nimung mulihuk,</t>
-  </si>
-  <si>
-    <t>Hm! You sure work slowly!</t>
-  </si>
-  <si>
-    <t>A, kanindut nimug sinina,</t>
-  </si>
-  <si>
-    <t>How come you have such a beautiful dress on!</t>
-  </si>
-  <si>
     <t>Aba! Nakadaug ku,</t>
   </si>
   <si>
@@ -164,36 +110,12 @@
     <t>Shut up! You’re great at talking, but let’s see you do s.t.</t>
   </si>
   <si>
-    <t>Abaa! Mah??g ka gani diha!</t>
-  </si>
-  <si>
-    <t>Stop that! You might fall!</t>
-  </si>
-  <si>
-    <t>Gipakatagaabab lang ku ninyu. Ihasa,</t>
-  </si>
-  <si>
-    <t>You just think I’m a hillbilly. Don’t try to fool me.</t>
-  </si>
-  <si>
-    <t>Ab-abun sa iru ang iyang hikut,</t>
-  </si>
-  <si>
-    <t>The dog will chew up his rope.</t>
-  </si>
-  <si>
     <t>Ang pagluib ni Mariya nag-ab-ab sa iyang balatian,</t>
   </si>
   <si>
     <t>Maria’s infidelity ate away at his insides.</t>
   </si>
   <si>
-    <t>Giab-ab ang iyang pinuti sa taya,</t>
-  </si>
-  <si>
-    <t>His sword was eaten away by rust.</t>
-  </si>
-  <si>
     <t>Ang nag-ab-ab kung nuka,</t>
   </si>
   <si>
@@ -314,30 +236,12 @@
     <t>Don’t put a window right where it catches the full breeze.</t>
   </si>
   <si>
-    <t>Ang mga Hapunis miabansin sa patag sa Lusun,</t>
-  </si>
-  <si>
-    <t>The Japanese advanced over the plains of Luzon.</t>
-  </si>
-  <si>
     <t>Abanti ka rang milingkud,</t>
   </si>
   <si>
     <t>You took a seat too far to the front.</t>
   </si>
   <si>
-    <t>Muabanti kag diyutay, matambug ka sa bangag,</t>
-  </si>
-  <si>
-    <t>If you move forward any more, you will fall into the hole.</t>
-  </si>
-  <si>
-    <t>Iabanti nang imung awtug diyutay,</t>
-  </si>
-  <si>
-    <t>Move your car forward a bit.</t>
-  </si>
-  <si>
     <t>Naabantihan mu namug diyis puntus,</t>
   </si>
   <si>
@@ -374,24 +278,12 @@
     <t>He felt for the key in his pocket to see if he hadn’t left it behind.</t>
   </si>
   <si>
-    <t>Abatun ku ang iyang agtang ug hilanatun ba,</t>
-  </si>
-  <si>
-    <t>I’ll touch her forehead to see if she is feverish.</t>
-  </si>
-  <si>
     <t>Nakaabat ku sa kabugnaw sa sinihan,</t>
   </si>
   <si>
     <t>I felt the coolness of the movie house.</t>
   </si>
   <si>
-    <t>Abatun gani nimu ang kasakit, musamut giyud,</t>
-  </si>
-  <si>
-    <t>If you think about the pain, it will get worse.</t>
-  </si>
-  <si>
     <t>Nakaabat kung mu rag may misaka sa amung bay,</t>
   </si>
   <si>
@@ -416,30 +308,12 @@
     <t>When my aunt was born, a twin snake was born with her, and so her mother became rich.</t>
   </si>
   <si>
-    <t>Ug mupalit kag usa ka sakung humay muabay kug lima ka gantang,</t>
-  </si>
-  <si>
-    <t>If you buy a sack of rice, I will go in with you for five ganta’s worth.</t>
-  </si>
-  <si>
-    <t>Giabyan niyag singku pisus ang akung pusta,</t>
-  </si>
-  <si>
-    <t>He went in for five pesos on my bet.</t>
-  </si>
-  <si>
     <t>Ang akung abay balig dus pisus ra,</t>
   </si>
   <si>
     <t>My share is two pesos’ worth.</t>
   </si>
   <si>
-    <t>Asa man ning dyipa, bay?</t>
-  </si>
-  <si>
-    <t>Where is this jeep headed for, driver?</t>
-  </si>
-  <si>
     <t>Alang kaniya wala siyay laing abyan kun dili alak,</t>
   </si>
   <si>
@@ -536,24 +410,12 @@
     <t>Let’s become partners in selling food.</t>
   </si>
   <si>
-    <t>Mga hakug sa gahum ang miabin kaniya,</t>
-  </si>
-  <si>
-    <t>People who were greedy for power allied themselves with him.</t>
-  </si>
-  <si>
     <t>Nakig-abin aku kaniya sa iyang mga panglantaw sa unahan,</t>
   </si>
   <si>
     <t>I share his views of the future.</t>
   </si>
   <si>
-    <t>Ug siyay akung abin sa biku kanunay ming mudaug,</t>
-  </si>
-  <si>
-    <t>When she is my partner in hopscotch, we always win.</t>
-  </si>
-  <si>
     <t>Makita siya sa mga lilas abintura,</t>
   </si>
   <si>
@@ -578,12 +440,6 @@
     <t>Try your luck with Maria and ask her.</t>
   </si>
   <si>
-    <t>Di ku mugugul ug kwarta niana kay di ku abinturista. Basig di musalir,</t>
-  </si>
-  <si>
-    <t>I won’t invest my money on that because I’m not daring. It might just fail.</t>
-  </si>
-  <si>
     <t>Ang diyus makagagahum. Abir, unsaun man nimu pagpangutana diin siya manukad,</t>
   </si>
   <si>
@@ -620,12 +476,6 @@
     <t>I’ll just take a stab at asking Maria.</t>
   </si>
   <si>
-    <t>Iabir kunu ni sa ahinsiya ug dawatun ba,</t>
-  </si>
-  <si>
-    <t>Try taking this to the pawnshop and see if they will accept it.</t>
-  </si>
-  <si>
     <t>Pasar ku kay utsinta akung abirids,</t>
   </si>
   <si>
@@ -642,6 +492,9 @@
   </si>
   <si>
     <t>This truck cannot be used. It is broken.</t>
+  </si>
+  <si>
+    <t>Filename</t>
   </si>
 </sst>
 </file>
@@ -1020,824 +873,852 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780936F6-BC4B-49AB-A818-A64922C799C2}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B101"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>
